--- a/Archivo.xlsx
+++ b/Archivo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Nahuel</t>
   </si>
@@ -44,10 +44,22 @@
     <t>Ezequiel</t>
   </si>
   <si>
-    <t>Elmago</t>
-  </si>
-  <si>
-    <t>Boca</t>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Hugo</t>
   </si>
 </sst>
 </file>
@@ -458,15 +470,60 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
